--- a/zhongjiao_else.xlsx
+++ b/zhongjiao_else.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dl-hehe\Documents\WeChat Files\hehe_dl_87030712\FileStorage\File\2019-08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\实验室\中交一公局\ZhongJiaoExcelProcess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9064A050-D051-41DA-98B6-305D82049CF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="zhongjiao_all" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -103,752 +102,753 @@
     <t>资源分布表-报局报表</t>
   </si>
   <si>
+    <t>1. 模板-各单位报海外事业部的报表</t>
+  </si>
+  <si>
+    <t>1. 模板-会议重点工作事项分解落实清单</t>
+  </si>
+  <si>
+    <t>1. 模板-会议重点工作事项分解落实清单-2018.12.04</t>
+  </si>
+  <si>
+    <t>2. 模板-2019年度国资委预算报表</t>
+  </si>
+  <si>
+    <t>刚果金SIC房地产公司-2019年国资委预算上报需要表格</t>
+  </si>
+  <si>
+    <t>主要分析指标表（计算机自动生成）</t>
+  </si>
+  <si>
+    <t>国资企预01表--主要业务经营预算表</t>
+  </si>
+  <si>
+    <t>国资企预02表--主要业务损益预算表</t>
+  </si>
+  <si>
+    <t>国资企预03表--固定资产投资预算表</t>
+  </si>
+  <si>
+    <t>国资企预04表--股权投资预算表</t>
+  </si>
+  <si>
+    <t>国资企预05表--金融工具情况预算表</t>
+  </si>
+  <si>
+    <t>国资企预06表--对外筹资预算表</t>
+  </si>
+  <si>
+    <t>国资企预07表--人工成本预算表</t>
+  </si>
+  <si>
+    <t>国资企预08表--成本费用预算表</t>
+  </si>
+  <si>
+    <t>国资企预09表--利润预算表</t>
+  </si>
+  <si>
+    <t>国资企预10表--现金流量预算表</t>
+  </si>
+  <si>
+    <t>国资企预11表--资产负债预算表</t>
+  </si>
+  <si>
+    <t>国资企预12表--对外捐赠支出预算表</t>
+  </si>
+  <si>
+    <t>国资企预13表--经济增加值预算表</t>
+  </si>
+  <si>
+    <t>国资企预14表--专项工作情况预算表</t>
+  </si>
+  <si>
+    <t>国资企预补01表--2019年度主要指标预报表</t>
+  </si>
+  <si>
+    <t>国资企预补02表--2019年度预算调整主要指标表</t>
+  </si>
+  <si>
+    <t>封面代码</t>
+  </si>
+  <si>
+    <t>喀麦隆雅温得城市综合体项目-2019年国资委预算上报需要表格</t>
+  </si>
+  <si>
+    <t>通知-关于做好2019年度中央企业预算管理工作（国资发财管【2018】104号）</t>
+  </si>
+  <si>
+    <t>2. 模板-报中交集团的报表</t>
+  </si>
+  <si>
+    <t>1. 模板-刚果金FIKIN房地产开发项目投后管理报告（2018年3季度）</t>
+  </si>
+  <si>
+    <t>2018Q3境外投资项目信息汇总表-(中交一公局)</t>
+  </si>
+  <si>
+    <t>境外房地产投资项目季度报表(刚果金2018年3季度)</t>
+  </si>
+  <si>
+    <t>投后管理报告_刚果金FIKIN2018年3季度</t>
+  </si>
+  <si>
+    <t>2. 模板-刚果（金）SIC房地产公司FIKIN现代城项目-国资委重大投资项目报表-股权产权投资完成情况季报</t>
+  </si>
+  <si>
+    <t>2. 模板-刚果金FIKIN房地产投资项目-2018年第4季度-多报表</t>
+  </si>
+  <si>
+    <t>3. 模板-刚果（金）SIC房地产公司FIKIN现代城项目投资项目生产经营月报表</t>
+  </si>
+  <si>
+    <t>3. 模板-2018年10月-一公局_海外_刚果（金）SIC房地产公司-项目经营阶段_多报表</t>
+  </si>
+  <si>
+    <t>4. 模板-喀麦隆雅温得城市综合体项目-国资委重大投资项目报表-股权产权投资完成情况季报</t>
+  </si>
+  <si>
+    <t>4. 模板-喀麦隆城市综合体项目-2018年第4季度-多报表</t>
+  </si>
+  <si>
+    <t>5. 模板-喀麦隆雅温得城市综合体项目投资项目生产经营月报表</t>
+  </si>
+  <si>
+    <t>因喀麦隆项目于12月份刚开工，次月报暂无更新的数据。</t>
+  </si>
+  <si>
+    <t>6. 模板-东非总部大楼项目-国资委重大投资项目报表-固定资产投资完成情况季报</t>
+  </si>
+  <si>
+    <t>6. 模板-东非总部大楼项目-2018年第4季度-多报表</t>
+  </si>
+  <si>
+    <t>1. 模板-刚果（金）SIC房地产公司FIKIN现代城项目投后管理报告季度报表</t>
+  </si>
+  <si>
+    <t>1. 模板-刚果金FIKIN房地产开发项目投后管理报告（2018年2季度）</t>
+  </si>
+  <si>
+    <t>2018Q2境外投资项目信息汇总表-(中交一公局)</t>
+  </si>
+  <si>
+    <t>境外房地产投资项目季度报表(刚果金2018年2季度)</t>
+  </si>
+  <si>
+    <t>投后管理报告_刚果金FIKIN2018年2季度</t>
+  </si>
+  <si>
+    <t>2. 模板-2018年投资完成情况报表</t>
+  </si>
+  <si>
+    <t>2. 模板-报表汇总</t>
+  </si>
+  <si>
+    <t>附件2：2018年投资完成情况报告</t>
+  </si>
+  <si>
+    <t>附件3：2018年投资完成情况表（含编制说明）</t>
+  </si>
+  <si>
+    <t>通知-关于做好2018年投资完成情况报送工作</t>
+  </si>
+  <si>
+    <t>关于做好2018年投资完成情况报送工作的通知</t>
+  </si>
+  <si>
+    <t>附件1：国资委《关于做好2018年中央企业投资完成情况报送工作有关事项的通知》（国资厅规划〔2018〕689号）</t>
+  </si>
+  <si>
+    <t>附件2：2018年投资完成情况报告提纲</t>
+  </si>
+  <si>
+    <t>投资公司-报表统计表</t>
+  </si>
+  <si>
+    <t>报表统计表(技术中心)</t>
+  </si>
+  <si>
+    <t>报表统计表--财务中心汇总</t>
+  </si>
+  <si>
+    <t>报表统计表-市场开发部</t>
+  </si>
+  <si>
+    <t>报表统计表-物设中心</t>
+  </si>
+  <si>
+    <t>报表统计财务中心表样</t>
+  </si>
+  <si>
+    <t>各单位报海外事业部的报表</t>
+  </si>
+  <si>
+    <t>10保函台账-中非公司</t>
+  </si>
+  <si>
+    <t>1财务月报附表汇总及主要指标排名</t>
+  </si>
+  <si>
+    <t>2对外承包项目工程管理--竣工审计结果</t>
+  </si>
+  <si>
+    <t>3局年度督导系统反馈表</t>
+  </si>
+  <si>
+    <t>4简报</t>
+  </si>
+  <si>
+    <t>5海外事业部年度重点工作月度跟踪</t>
+  </si>
+  <si>
+    <t>6年度资金收支计划表</t>
+  </si>
+  <si>
+    <t>7未来三个月现金流量预算表</t>
+  </si>
+  <si>
+    <t>8月度资金预算执行情况表</t>
+  </si>
+  <si>
+    <t>9海外事业部应收款项催收情况表</t>
+  </si>
+  <si>
+    <t>各项目部报国家总项目部的报表</t>
+  </si>
+  <si>
+    <t>个人所得税报告表汇总</t>
+  </si>
+  <si>
+    <t>已缴纳所得税费用项信息表</t>
+  </si>
+  <si>
+    <t>报中交集团外的报表</t>
+  </si>
+  <si>
+    <t>信息填报--企业盈利</t>
+  </si>
+  <si>
+    <t>报中交集团的表</t>
+  </si>
+  <si>
+    <t>10农民工保证金及其他保证金统计表</t>
+  </si>
+  <si>
+    <t>11应收应付保证金统计表</t>
+  </si>
+  <si>
+    <t>12预决算</t>
+  </si>
+  <si>
+    <t>13国际化经营</t>
+  </si>
+  <si>
+    <t>1财务管理月报</t>
+  </si>
+  <si>
+    <t>2预算执行（管理版）</t>
+  </si>
+  <si>
+    <t>3中国交建海外在建项目统计表</t>
+  </si>
+  <si>
+    <t>4管理会计报表</t>
+  </si>
+  <si>
+    <t>5清理拖欠民营企业账款月度统计表</t>
+  </si>
+  <si>
+    <t>6季度受限资产统计表</t>
+  </si>
+  <si>
+    <t>7财务季报</t>
+  </si>
+  <si>
+    <t>8财务中报</t>
+  </si>
+  <si>
+    <t>9财务年报</t>
+  </si>
+  <si>
+    <t>报局部门的表</t>
+  </si>
+  <si>
+    <t>10各省市税费缴纳入库情况表</t>
+  </si>
+  <si>
+    <t>11国别报告信息采集表</t>
+  </si>
+  <si>
+    <t>12新版增值税申报表-201810</t>
+  </si>
+  <si>
+    <t>13年度“走出去”清册（海外）</t>
+  </si>
+  <si>
+    <t>14日常工作表及每月重点、难点工作统计表</t>
+  </si>
+  <si>
+    <t>15带息负债预测表长短期借款预测表表样-海外</t>
+  </si>
+  <si>
+    <t>16金融创新业务统计表-表样18.7.23（新格式）</t>
+  </si>
+  <si>
+    <t>17建筑企业主要经营指标 海外总承包工程结汇数量、结汇平均汇率-海外公司</t>
+  </si>
+  <si>
+    <t>1高新核算监控表月度报表</t>
+  </si>
+  <si>
+    <t>2研发费用高新收入季报</t>
+  </si>
+  <si>
+    <t>3财务月报</t>
+  </si>
+  <si>
+    <t>4银行账户月报</t>
+  </si>
+  <si>
+    <t>5保证金缴纳情况统计表</t>
+  </si>
+  <si>
+    <t>6折现底稿</t>
+  </si>
+  <si>
+    <t>7减值计提表</t>
+  </si>
+  <si>
+    <t>8财务指标测算表</t>
+  </si>
+  <si>
+    <t>9财务管理报表</t>
+  </si>
+  <si>
+    <t>报表附件：市场开发部</t>
+  </si>
+  <si>
+    <t>1.各单位报海外事业部的报表</t>
+  </si>
+  <si>
+    <t>1. XXX区域总部周报（2018年11月-第4期-总第二十期）</t>
+  </si>
+  <si>
+    <t>2. XXX办事处周报（2018年11月-第4期-总第二十期）</t>
+  </si>
+  <si>
+    <t>3. XXX区域总部月报（2018年11月-总第一期）</t>
+  </si>
+  <si>
+    <t>4. XXX办事处月报（2018年11月-总第一期）</t>
+  </si>
+  <si>
+    <t>5.非洲国家信息统计表-2018-11</t>
+  </si>
+  <si>
+    <t>2.报中交集团的报表</t>
+  </si>
+  <si>
+    <t>1. 中交一公局2018年第N季度铁路项目季报201800XX</t>
+  </si>
+  <si>
+    <t>3.报局各部门的报表</t>
+  </si>
+  <si>
+    <t>1.开发月报-海外20181225</t>
+  </si>
+  <si>
+    <t>2.非洲国家信息统计表-2018-11</t>
+  </si>
+  <si>
+    <t>4.报中交集团外的报表</t>
+  </si>
+  <si>
+    <t>1. 中交一公局对非产能合作重点项目进展情况表-科特迪瓦（2018年第4季度）（1）</t>
+  </si>
+  <si>
+    <t>海外技术中心报表统计1</t>
+  </si>
+  <si>
+    <t>1 海外事业部上报局集团科学技术质量部报表清单</t>
+  </si>
+  <si>
+    <t>2 海外各单位上报海外技术中心报表清单</t>
+  </si>
+  <si>
+    <t>技术中心上报局报表类</t>
+  </si>
+  <si>
+    <t>1海外事业部上报局集团科学技术质量部资料清单</t>
+  </si>
+  <si>
+    <t>决策清单</t>
+  </si>
+  <si>
+    <t>1、海外事业部年度、月度施工技术方案计划等级清单</t>
+  </si>
+  <si>
+    <t>2、海外事业部施工方案集中编制清单（季度）</t>
+  </si>
+  <si>
+    <t>3、工程奖项 省部级+国家级 计划表 （年度）</t>
+  </si>
+  <si>
+    <t>4、年度公司级科技研发项目立项申请汇总表（年度）</t>
+  </si>
+  <si>
+    <t>5、年度工法计划清单（年度）</t>
+  </si>
+  <si>
+    <t>6、 高新企业研发课题年度计划表（年度）</t>
+  </si>
+  <si>
+    <t>报表统计表</t>
+  </si>
+  <si>
+    <t>海外各单位报事业部技术中心报表</t>
+  </si>
+  <si>
+    <t>国家总项目部上报技术中心报表清单</t>
+  </si>
+  <si>
+    <t>报表</t>
+  </si>
+  <si>
+    <t>1、（新表）海外事业部XX国家总项目部年度施工方案编制计划等级清单（年度）</t>
+  </si>
+  <si>
+    <t>2、国家总项目部年度设计文件清单（年度）</t>
+  </si>
+  <si>
+    <t>3、XX国家总项目部XX年度项目交竣工信息计划统计表（年度）</t>
+  </si>
+  <si>
+    <t>港航房建部报表汇总统计</t>
+  </si>
+  <si>
+    <t>报表统计表——港航房建部</t>
+  </si>
+  <si>
+    <t>港航房建部——报表模板</t>
+  </si>
+  <si>
+    <t>海外事业部房建项目施工管理简报（     年   月）</t>
+  </si>
+  <si>
+    <t>重点项目跟踪——项目名称（      年    月）</t>
+  </si>
+  <si>
+    <t>物设中心报表模板</t>
+  </si>
+  <si>
+    <t>季报表</t>
+  </si>
+  <si>
+    <t>20.机械设备产权档案</t>
+  </si>
+  <si>
+    <t>协作单位机械设备产权档案</t>
+  </si>
+  <si>
+    <t>XX国家</t>
+  </si>
+  <si>
+    <t>001设备</t>
+  </si>
+  <si>
+    <t>001协作单位机械设备产权档案清查明细表</t>
+  </si>
+  <si>
+    <t>002设备</t>
+  </si>
+  <si>
+    <t>002协作单位机械设备产权档案清查明细表</t>
+  </si>
+  <si>
+    <t>X国家</t>
+  </si>
+  <si>
+    <t>协作单位机械设备产权档案清查汇总表</t>
+  </si>
+  <si>
+    <t>自有机械设备产权档案</t>
+  </si>
+  <si>
+    <t>001自有机械设备产权档案清查明细表</t>
+  </si>
+  <si>
+    <t>002自有机械设备产权档案清查明细表</t>
+  </si>
+  <si>
+    <t>自有机械设备产权档案清查汇总表</t>
+  </si>
+  <si>
+    <t>21.设备进口档案管理台账季报</t>
+  </si>
+  <si>
+    <t>22.关税保函台账</t>
+  </si>
+  <si>
+    <t>23.再出口物资设备清关台账</t>
+  </si>
+  <si>
+    <t>24.ABC机械情况表</t>
+  </si>
+  <si>
+    <t>25.租用外部机械设备使用情况表</t>
+  </si>
+  <si>
+    <t>26.季度机械设备分布情况表</t>
+  </si>
+  <si>
+    <t>27.各公司闲置设备统计表</t>
+  </si>
+  <si>
+    <t>28.大型特种机械设备台帐</t>
+  </si>
+  <si>
+    <t>29.运营管理业务采集季报（更新）</t>
+  </si>
+  <si>
+    <t>30.主要物资收、发、存统计季度报表</t>
+  </si>
+  <si>
+    <t>31.物资购进、消费与库存总值季度汇总表</t>
+  </si>
+  <si>
+    <t>32.物资消费分配总值季汇总报表</t>
+  </si>
+  <si>
+    <t>33.周转材料入库台账</t>
+  </si>
+  <si>
+    <t>34.管理人员名录-模板更新</t>
+  </si>
+  <si>
+    <t>35.36.量差价差核算报表XX年X季度-模板</t>
+  </si>
+  <si>
+    <t>37.国家总项目部物资量差、价差节约超耗分析模板</t>
+  </si>
+  <si>
+    <t>年报表</t>
+  </si>
+  <si>
+    <t>38.机械技术装备表</t>
+  </si>
+  <si>
+    <t>39.国家总项目部物资、配件盘点汇总表-模板</t>
+  </si>
+  <si>
+    <t>40.国家总项目部年度盘点盈亏分析表-模板</t>
+  </si>
+  <si>
+    <t>41.XX国家总项目部XX年度清关档案清查报告</t>
+  </si>
+  <si>
+    <t>月报表</t>
+  </si>
+  <si>
+    <t>1.机械设备台账</t>
+  </si>
+  <si>
+    <t>10.材料运营管理月报</t>
+  </si>
+  <si>
+    <t>11.2018年XX月份库存配件统计表</t>
+  </si>
+  <si>
+    <t>12.XX月配件库存盘点分析说明</t>
+  </si>
+  <si>
+    <t>13.清关报告</t>
+  </si>
+  <si>
+    <t>14.海运、空运及来人携带台账</t>
+  </si>
+  <si>
+    <t>15.海外事业部当地采购统计月报表模板</t>
+  </si>
+  <si>
+    <t>16.海外事业部总部采购统计月报表汇总模板</t>
+  </si>
+  <si>
+    <t>17.机场、房建类专用物资设备采购信息收集表</t>
+  </si>
+  <si>
+    <t>18.机场、房建物资设备采购需求计划统计表</t>
+  </si>
+  <si>
+    <t>19.机场、房建专用物资设备供货商信息统计</t>
+  </si>
+  <si>
+    <t>2.机械设备技术状况月报</t>
+  </si>
+  <si>
+    <t>3.中交集团生产指挥调度管理系统机械设备月报</t>
+  </si>
+  <si>
+    <t>4.仪器仪表台帐</t>
+  </si>
+  <si>
+    <t>5.协作队伍机械设备技术状况月报</t>
+  </si>
+  <si>
+    <t>6.协作队伍机械设备使用情况表</t>
+  </si>
+  <si>
+    <t>7.主要物资收、发、存统计月度报表</t>
+  </si>
+  <si>
+    <t>8.物资购进、消费与库存总值月度汇总表</t>
+  </si>
+  <si>
+    <t>9.周转材料统计月度报表</t>
+  </si>
+  <si>
+    <t>各项目部报国家总项目部报表</t>
+  </si>
+  <si>
+    <t>13.海外事业部当地采购统计月报表模板</t>
+  </si>
+  <si>
+    <t>14.机场、房建类专用物资设备采购信息收集表</t>
+  </si>
+  <si>
+    <t>15.机场、房建物资设备采购需求计划统计表</t>
+  </si>
+  <si>
+    <t>16.机场、房建专用物资设备供货商信息统计</t>
+  </si>
+  <si>
+    <t>17.ABC机械情况表</t>
+  </si>
+  <si>
+    <t>18.租用外部机械设备使用情况表</t>
+  </si>
+  <si>
+    <t>19.季度机械设备分布情况表</t>
+  </si>
+  <si>
+    <t>20.各公司闲置设备统计表</t>
+  </si>
+  <si>
+    <t>21.大型特种机械设备台帐</t>
+  </si>
+  <si>
+    <t>22.运营管理业务采集季报（更新）</t>
+  </si>
+  <si>
+    <t>23.主要物资收、发、存统计季度报表</t>
+  </si>
+  <si>
+    <t>24.物资购进、消费与库存总值季度汇总表</t>
+  </si>
+  <si>
+    <t>25.物资消费分配总值季汇总报表</t>
+  </si>
+  <si>
+    <t>26.周转材料入库台账</t>
+  </si>
+  <si>
+    <t>27.管理人员名录-模板更新</t>
+  </si>
+  <si>
+    <t>28.29量差价差核算报表XX年X季度-模板</t>
+  </si>
+  <si>
+    <t>30.项目部物资量差、价差节约超耗分析模板</t>
+  </si>
+  <si>
+    <t>31.机械技术装备表</t>
+  </si>
+  <si>
+    <t>32.项目物资、配件盘点表-模板</t>
+  </si>
+  <si>
+    <t>33.项目年度盘点盈亏分析表-模板</t>
+  </si>
+  <si>
+    <t>报中交集团的报表</t>
+  </si>
+  <si>
+    <t>2.海外机械设备分布情况季报</t>
+  </si>
+  <si>
+    <t>1.中交集团生产指挥调度管理系统机械设备月报</t>
+  </si>
+  <si>
+    <t>报局各部门的报表</t>
+  </si>
+  <si>
+    <t>10.物资购进、消费与库存总值季度汇总表</t>
+  </si>
+  <si>
+    <t>11.物资消费分配总值季汇总报表</t>
+  </si>
+  <si>
+    <t>12.周转材料入库台账</t>
+  </si>
+  <si>
+    <t>13.14.量差价差核算报表XX年X季度-模板</t>
+  </si>
+  <si>
+    <t>15.国家总项目部物资量差、价差节约超耗分析模板</t>
+  </si>
+  <si>
+    <t>16.ABC机械情况表</t>
+  </si>
+  <si>
+    <t>17.租用外部机械设备使用情况表</t>
+  </si>
+  <si>
+    <t>18.大型特种机械设备台账</t>
+  </si>
+  <si>
+    <t>20.设备投资季报</t>
+  </si>
+  <si>
+    <t>21.自有施工机械设备状况</t>
+  </si>
+  <si>
+    <t>22.各公司闲置设备统计表</t>
+  </si>
+  <si>
+    <t>8.运营管理业务采集季报（更新）</t>
+  </si>
+  <si>
+    <t>9.主要物资收、发、存统计季度报表</t>
+  </si>
+  <si>
+    <t>23.机械技术装备表</t>
+  </si>
+  <si>
+    <t>2.设备采购台账</t>
+  </si>
+  <si>
+    <t>3.主要物资收、发、存统计月度报表</t>
+  </si>
+  <si>
+    <t>4.物资购进、消费与库存总值月度汇总表</t>
+  </si>
+  <si>
+    <t>5.周转材料统计月度报表</t>
+  </si>
+  <si>
+    <t>6.材料运营管理月报</t>
+  </si>
+  <si>
+    <t>7.协作队伍机械设备使用情况表</t>
+  </si>
+  <si>
     <t>投资公司-报表统计</t>
-  </si>
-  <si>
-    <t>1. 模板-各单位报海外事业部的报表</t>
-  </si>
-  <si>
-    <t>1. 模板-会议重点工作事项分解落实清单</t>
-  </si>
-  <si>
-    <t>1. 模板-会议重点工作事项分解落实清单-2018.12.04</t>
-  </si>
-  <si>
-    <t>2. 模板-2019年度国资委预算报表</t>
-  </si>
-  <si>
-    <t>刚果金SIC房地产公司-2019年国资委预算上报需要表格</t>
-  </si>
-  <si>
-    <t>主要分析指标表（计算机自动生成）</t>
-  </si>
-  <si>
-    <t>国资企预01表--主要业务经营预算表</t>
-  </si>
-  <si>
-    <t>国资企预02表--主要业务损益预算表</t>
-  </si>
-  <si>
-    <t>国资企预03表--固定资产投资预算表</t>
-  </si>
-  <si>
-    <t>国资企预04表--股权投资预算表</t>
-  </si>
-  <si>
-    <t>国资企预05表--金融工具情况预算表</t>
-  </si>
-  <si>
-    <t>国资企预06表--对外筹资预算表</t>
-  </si>
-  <si>
-    <t>国资企预07表--人工成本预算表</t>
-  </si>
-  <si>
-    <t>国资企预08表--成本费用预算表</t>
-  </si>
-  <si>
-    <t>国资企预09表--利润预算表</t>
-  </si>
-  <si>
-    <t>国资企预10表--现金流量预算表</t>
-  </si>
-  <si>
-    <t>国资企预11表--资产负债预算表</t>
-  </si>
-  <si>
-    <t>国资企预12表--对外捐赠支出预算表</t>
-  </si>
-  <si>
-    <t>国资企预13表--经济增加值预算表</t>
-  </si>
-  <si>
-    <t>国资企预14表--专项工作情况预算表</t>
-  </si>
-  <si>
-    <t>国资企预补01表--2019年度主要指标预报表</t>
-  </si>
-  <si>
-    <t>国资企预补02表--2019年度预算调整主要指标表</t>
-  </si>
-  <si>
-    <t>封面代码</t>
-  </si>
-  <si>
-    <t>喀麦隆雅温得城市综合体项目-2019年国资委预算上报需要表格</t>
-  </si>
-  <si>
-    <t>通知-关于做好2019年度中央企业预算管理工作（国资发财管【2018】104号）</t>
-  </si>
-  <si>
-    <t>2. 模板-报中交集团的报表</t>
-  </si>
-  <si>
-    <t>1. 模板-刚果金FIKIN房地产开发项目投后管理报告（2018年3季度）</t>
-  </si>
-  <si>
-    <t>2018Q3境外投资项目信息汇总表-(中交一公局)</t>
-  </si>
-  <si>
-    <t>境外房地产投资项目季度报表(刚果金2018年3季度)</t>
-  </si>
-  <si>
-    <t>投后管理报告_刚果金FIKIN2018年3季度</t>
-  </si>
-  <si>
-    <t>2. 模板-刚果（金）SIC房地产公司FIKIN现代城项目-国资委重大投资项目报表-股权产权投资完成情况季报</t>
-  </si>
-  <si>
-    <t>2. 模板-刚果金FIKIN房地产投资项目-2018年第4季度-多报表</t>
-  </si>
-  <si>
-    <t>3. 模板-刚果（金）SIC房地产公司FIKIN现代城项目投资项目生产经营月报表</t>
-  </si>
-  <si>
-    <t>3. 模板-2018年10月-一公局_海外_刚果（金）SIC房地产公司-项目经营阶段_多报表</t>
-  </si>
-  <si>
-    <t>4. 模板-喀麦隆雅温得城市综合体项目-国资委重大投资项目报表-股权产权投资完成情况季报</t>
-  </si>
-  <si>
-    <t>4. 模板-喀麦隆城市综合体项目-2018年第4季度-多报表</t>
-  </si>
-  <si>
-    <t>5. 模板-喀麦隆雅温得城市综合体项目投资项目生产经营月报表</t>
-  </si>
-  <si>
-    <t>因喀麦隆项目于12月份刚开工，次月报暂无更新的数据。</t>
-  </si>
-  <si>
-    <t>6. 模板-东非总部大楼项目-国资委重大投资项目报表-固定资产投资完成情况季报</t>
-  </si>
-  <si>
-    <t>6. 模板-东非总部大楼项目-2018年第4季度-多报表</t>
-  </si>
-  <si>
-    <t>1. 模板-刚果（金）SIC房地产公司FIKIN现代城项目投后管理报告季度报表</t>
-  </si>
-  <si>
-    <t>1. 模板-刚果金FIKIN房地产开发项目投后管理报告（2018年2季度）</t>
-  </si>
-  <si>
-    <t>2018Q2境外投资项目信息汇总表-(中交一公局)</t>
-  </si>
-  <si>
-    <t>境外房地产投资项目季度报表(刚果金2018年2季度)</t>
-  </si>
-  <si>
-    <t>投后管理报告_刚果金FIKIN2018年2季度</t>
-  </si>
-  <si>
-    <t>2. 模板-2018年投资完成情况报表</t>
-  </si>
-  <si>
-    <t>2. 模板-报表汇总</t>
-  </si>
-  <si>
-    <t>附件2：2018年投资完成情况报告</t>
-  </si>
-  <si>
-    <t>附件3：2018年投资完成情况表（含编制说明）</t>
-  </si>
-  <si>
-    <t>通知-关于做好2018年投资完成情况报送工作</t>
-  </si>
-  <si>
-    <t>关于做好2018年投资完成情况报送工作的通知</t>
-  </si>
-  <si>
-    <t>附件1：国资委《关于做好2018年中央企业投资完成情况报送工作有关事项的通知》（国资厅规划〔2018〕689号）</t>
-  </si>
-  <si>
-    <t>附件2：2018年投资完成情况报告提纲</t>
-  </si>
-  <si>
-    <t>投资公司-报表统计表</t>
-  </si>
-  <si>
-    <t>报表统计表(技术中心)</t>
-  </si>
-  <si>
-    <t>报表统计表--财务中心汇总</t>
-  </si>
-  <si>
-    <t>报表统计表-市场开发部</t>
-  </si>
-  <si>
-    <t>报表统计表-物设中心</t>
-  </si>
-  <si>
-    <t>报表统计财务中心表样</t>
-  </si>
-  <si>
-    <t>各单位报海外事业部的报表</t>
-  </si>
-  <si>
-    <t>10保函台账-中非公司</t>
-  </si>
-  <si>
-    <t>1财务月报附表汇总及主要指标排名</t>
-  </si>
-  <si>
-    <t>2对外承包项目工程管理--竣工审计结果</t>
-  </si>
-  <si>
-    <t>3局年度督导系统反馈表</t>
-  </si>
-  <si>
-    <t>4简报</t>
-  </si>
-  <si>
-    <t>5海外事业部年度重点工作月度跟踪</t>
-  </si>
-  <si>
-    <t>6年度资金收支计划表</t>
-  </si>
-  <si>
-    <t>7未来三个月现金流量预算表</t>
-  </si>
-  <si>
-    <t>8月度资金预算执行情况表</t>
-  </si>
-  <si>
-    <t>9海外事业部应收款项催收情况表</t>
-  </si>
-  <si>
-    <t>各项目部报国家总项目部的报表</t>
-  </si>
-  <si>
-    <t>个人所得税报告表汇总</t>
-  </si>
-  <si>
-    <t>已缴纳所得税费用项信息表</t>
-  </si>
-  <si>
-    <t>报中交集团外的报表</t>
-  </si>
-  <si>
-    <t>信息填报--企业盈利</t>
-  </si>
-  <si>
-    <t>报中交集团的表</t>
-  </si>
-  <si>
-    <t>10农民工保证金及其他保证金统计表</t>
-  </si>
-  <si>
-    <t>11应收应付保证金统计表</t>
-  </si>
-  <si>
-    <t>12预决算</t>
-  </si>
-  <si>
-    <t>13国际化经营</t>
-  </si>
-  <si>
-    <t>1财务管理月报</t>
-  </si>
-  <si>
-    <t>2预算执行（管理版）</t>
-  </si>
-  <si>
-    <t>3中国交建海外在建项目统计表</t>
-  </si>
-  <si>
-    <t>4管理会计报表</t>
-  </si>
-  <si>
-    <t>5清理拖欠民营企业账款月度统计表</t>
-  </si>
-  <si>
-    <t>6季度受限资产统计表</t>
-  </si>
-  <si>
-    <t>7财务季报</t>
-  </si>
-  <si>
-    <t>8财务中报</t>
-  </si>
-  <si>
-    <t>9财务年报</t>
-  </si>
-  <si>
-    <t>报局部门的表</t>
-  </si>
-  <si>
-    <t>10各省市税费缴纳入库情况表</t>
-  </si>
-  <si>
-    <t>11国别报告信息采集表</t>
-  </si>
-  <si>
-    <t>12新版增值税申报表-201810</t>
-  </si>
-  <si>
-    <t>13年度“走出去”清册（海外）</t>
-  </si>
-  <si>
-    <t>14日常工作表及每月重点、难点工作统计表</t>
-  </si>
-  <si>
-    <t>15带息负债预测表长短期借款预测表表样-海外</t>
-  </si>
-  <si>
-    <t>16金融创新业务统计表-表样18.7.23（新格式）</t>
-  </si>
-  <si>
-    <t>17建筑企业主要经营指标 海外总承包工程结汇数量、结汇平均汇率-海外公司</t>
-  </si>
-  <si>
-    <t>1高新核算监控表月度报表</t>
-  </si>
-  <si>
-    <t>2研发费用高新收入季报</t>
-  </si>
-  <si>
-    <t>3财务月报</t>
-  </si>
-  <si>
-    <t>4银行账户月报</t>
-  </si>
-  <si>
-    <t>5保证金缴纳情况统计表</t>
-  </si>
-  <si>
-    <t>6折现底稿</t>
-  </si>
-  <si>
-    <t>7减值计提表</t>
-  </si>
-  <si>
-    <t>8财务指标测算表</t>
-  </si>
-  <si>
-    <t>9财务管理报表</t>
-  </si>
-  <si>
-    <t>报表附件：市场开发部</t>
-  </si>
-  <si>
-    <t>1.各单位报海外事业部的报表</t>
-  </si>
-  <si>
-    <t>1. XXX区域总部周报（2018年11月-第4期-总第二十期）</t>
-  </si>
-  <si>
-    <t>2. XXX办事处周报（2018年11月-第4期-总第二十期）</t>
-  </si>
-  <si>
-    <t>3. XXX区域总部月报（2018年11月-总第一期）</t>
-  </si>
-  <si>
-    <t>4. XXX办事处月报（2018年11月-总第一期）</t>
-  </si>
-  <si>
-    <t>5.非洲国家信息统计表-2018-11</t>
-  </si>
-  <si>
-    <t>2.报中交集团的报表</t>
-  </si>
-  <si>
-    <t>1. 中交一公局2018年第N季度铁路项目季报201800XX</t>
-  </si>
-  <si>
-    <t>3.报局各部门的报表</t>
-  </si>
-  <si>
-    <t>1.开发月报-海外20181225</t>
-  </si>
-  <si>
-    <t>2.非洲国家信息统计表-2018-11</t>
-  </si>
-  <si>
-    <t>4.报中交集团外的报表</t>
-  </si>
-  <si>
-    <t>1. 中交一公局对非产能合作重点项目进展情况表-科特迪瓦（2018年第4季度）（1）</t>
-  </si>
-  <si>
-    <t>海外技术中心报表统计1</t>
-  </si>
-  <si>
-    <t>1 海外事业部上报局集团科学技术质量部报表清单</t>
-  </si>
-  <si>
-    <t>2 海外各单位上报海外技术中心报表清单</t>
-  </si>
-  <si>
-    <t>技术中心上报局报表类</t>
-  </si>
-  <si>
-    <t>1海外事业部上报局集团科学技术质量部资料清单</t>
-  </si>
-  <si>
-    <t>决策清单</t>
-  </si>
-  <si>
-    <t>1、海外事业部年度、月度施工技术方案计划等级清单</t>
-  </si>
-  <si>
-    <t>2、海外事业部施工方案集中编制清单（季度）</t>
-  </si>
-  <si>
-    <t>3、工程奖项 省部级+国家级 计划表 （年度）</t>
-  </si>
-  <si>
-    <t>4、年度公司级科技研发项目立项申请汇总表（年度）</t>
-  </si>
-  <si>
-    <t>5、年度工法计划清单（年度）</t>
-  </si>
-  <si>
-    <t>6、 高新企业研发课题年度计划表（年度）</t>
-  </si>
-  <si>
-    <t>报表统计表</t>
-  </si>
-  <si>
-    <t>海外各单位报事业部技术中心报表</t>
-  </si>
-  <si>
-    <t>国家总项目部上报技术中心报表清单</t>
-  </si>
-  <si>
-    <t>报表</t>
-  </si>
-  <si>
-    <t>1、（新表）海外事业部XX国家总项目部年度施工方案编制计划等级清单（年度）</t>
-  </si>
-  <si>
-    <t>2、国家总项目部年度设计文件清单（年度）</t>
-  </si>
-  <si>
-    <t>3、XX国家总项目部XX年度项目交竣工信息计划统计表（年度）</t>
-  </si>
-  <si>
-    <t>港航房建部报表汇总统计</t>
-  </si>
-  <si>
-    <t>报表统计表——港航房建部</t>
-  </si>
-  <si>
-    <t>港航房建部——报表模板</t>
-  </si>
-  <si>
-    <t>海外事业部房建项目施工管理简报（     年   月）</t>
-  </si>
-  <si>
-    <t>重点项目跟踪——项目名称（      年    月）</t>
-  </si>
-  <si>
-    <t>物设中心报表模板</t>
-  </si>
-  <si>
-    <t>季报表</t>
-  </si>
-  <si>
-    <t>20.机械设备产权档案</t>
-  </si>
-  <si>
-    <t>协作单位机械设备产权档案</t>
-  </si>
-  <si>
-    <t>XX国家</t>
-  </si>
-  <si>
-    <t>001设备</t>
-  </si>
-  <si>
-    <t>001协作单位机械设备产权档案清查明细表</t>
-  </si>
-  <si>
-    <t>002设备</t>
-  </si>
-  <si>
-    <t>002协作单位机械设备产权档案清查明细表</t>
-  </si>
-  <si>
-    <t>X国家</t>
-  </si>
-  <si>
-    <t>协作单位机械设备产权档案清查汇总表</t>
-  </si>
-  <si>
-    <t>自有机械设备产权档案</t>
-  </si>
-  <si>
-    <t>001自有机械设备产权档案清查明细表</t>
-  </si>
-  <si>
-    <t>002自有机械设备产权档案清查明细表</t>
-  </si>
-  <si>
-    <t>自有机械设备产权档案清查汇总表</t>
-  </si>
-  <si>
-    <t>21.设备进口档案管理台账季报</t>
-  </si>
-  <si>
-    <t>22.关税保函台账</t>
-  </si>
-  <si>
-    <t>23.再出口物资设备清关台账</t>
-  </si>
-  <si>
-    <t>24.ABC机械情况表</t>
-  </si>
-  <si>
-    <t>25.租用外部机械设备使用情况表</t>
-  </si>
-  <si>
-    <t>26.季度机械设备分布情况表</t>
-  </si>
-  <si>
-    <t>27.各公司闲置设备统计表</t>
-  </si>
-  <si>
-    <t>28.大型特种机械设备台帐</t>
-  </si>
-  <si>
-    <t>29.运营管理业务采集季报（更新）</t>
-  </si>
-  <si>
-    <t>30.主要物资收、发、存统计季度报表</t>
-  </si>
-  <si>
-    <t>31.物资购进、消费与库存总值季度汇总表</t>
-  </si>
-  <si>
-    <t>32.物资消费分配总值季汇总报表</t>
-  </si>
-  <si>
-    <t>33.周转材料入库台账</t>
-  </si>
-  <si>
-    <t>34.管理人员名录-模板更新</t>
-  </si>
-  <si>
-    <t>35.36.量差价差核算报表XX年X季度-模板</t>
-  </si>
-  <si>
-    <t>37.国家总项目部物资量差、价差节约超耗分析模板</t>
-  </si>
-  <si>
-    <t>年报表</t>
-  </si>
-  <si>
-    <t>38.机械技术装备表</t>
-  </si>
-  <si>
-    <t>39.国家总项目部物资、配件盘点汇总表-模板</t>
-  </si>
-  <si>
-    <t>40.国家总项目部年度盘点盈亏分析表-模板</t>
-  </si>
-  <si>
-    <t>41.XX国家总项目部XX年度清关档案清查报告</t>
-  </si>
-  <si>
-    <t>月报表</t>
-  </si>
-  <si>
-    <t>1.机械设备台账</t>
-  </si>
-  <si>
-    <t>10.材料运营管理月报</t>
-  </si>
-  <si>
-    <t>11.2018年XX月份库存配件统计表</t>
-  </si>
-  <si>
-    <t>12.XX月配件库存盘点分析说明</t>
-  </si>
-  <si>
-    <t>13.清关报告</t>
-  </si>
-  <si>
-    <t>14.海运、空运及来人携带台账</t>
-  </si>
-  <si>
-    <t>15.海外事业部当地采购统计月报表模板</t>
-  </si>
-  <si>
-    <t>16.海外事业部总部采购统计月报表汇总模板</t>
-  </si>
-  <si>
-    <t>17.机场、房建类专用物资设备采购信息收集表</t>
-  </si>
-  <si>
-    <t>18.机场、房建物资设备采购需求计划统计表</t>
-  </si>
-  <si>
-    <t>19.机场、房建专用物资设备供货商信息统计</t>
-  </si>
-  <si>
-    <t>2.机械设备技术状况月报</t>
-  </si>
-  <si>
-    <t>3.中交集团生产指挥调度管理系统机械设备月报</t>
-  </si>
-  <si>
-    <t>4.仪器仪表台帐</t>
-  </si>
-  <si>
-    <t>5.协作队伍机械设备技术状况月报</t>
-  </si>
-  <si>
-    <t>6.协作队伍机械设备使用情况表</t>
-  </si>
-  <si>
-    <t>7.主要物资收、发、存统计月度报表</t>
-  </si>
-  <si>
-    <t>8.物资购进、消费与库存总值月度汇总表</t>
-  </si>
-  <si>
-    <t>9.周转材料统计月度报表</t>
-  </si>
-  <si>
-    <t>各项目部报国家总项目部报表</t>
-  </si>
-  <si>
-    <t>13.海外事业部当地采购统计月报表模板</t>
-  </si>
-  <si>
-    <t>14.机场、房建类专用物资设备采购信息收集表</t>
-  </si>
-  <si>
-    <t>15.机场、房建物资设备采购需求计划统计表</t>
-  </si>
-  <si>
-    <t>16.机场、房建专用物资设备供货商信息统计</t>
-  </si>
-  <si>
-    <t>17.ABC机械情况表</t>
-  </si>
-  <si>
-    <t>18.租用外部机械设备使用情况表</t>
-  </si>
-  <si>
-    <t>19.季度机械设备分布情况表</t>
-  </si>
-  <si>
-    <t>20.各公司闲置设备统计表</t>
-  </si>
-  <si>
-    <t>21.大型特种机械设备台帐</t>
-  </si>
-  <si>
-    <t>22.运营管理业务采集季报（更新）</t>
-  </si>
-  <si>
-    <t>23.主要物资收、发、存统计季度报表</t>
-  </si>
-  <si>
-    <t>24.物资购进、消费与库存总值季度汇总表</t>
-  </si>
-  <si>
-    <t>25.物资消费分配总值季汇总报表</t>
-  </si>
-  <si>
-    <t>26.周转材料入库台账</t>
-  </si>
-  <si>
-    <t>27.管理人员名录-模板更新</t>
-  </si>
-  <si>
-    <t>28.29量差价差核算报表XX年X季度-模板</t>
-  </si>
-  <si>
-    <t>30.项目部物资量差、价差节约超耗分析模板</t>
-  </si>
-  <si>
-    <t>31.机械技术装备表</t>
-  </si>
-  <si>
-    <t>32.项目物资、配件盘点表-模板</t>
-  </si>
-  <si>
-    <t>33.项目年度盘点盈亏分析表-模板</t>
-  </si>
-  <si>
-    <t>报中交集团的报表</t>
-  </si>
-  <si>
-    <t>2.海外机械设备分布情况季报</t>
-  </si>
-  <si>
-    <t>1.中交集团生产指挥调度管理系统机械设备月报</t>
-  </si>
-  <si>
-    <t>报局各部门的报表</t>
-  </si>
-  <si>
-    <t>10.物资购进、消费与库存总值季度汇总表</t>
-  </si>
-  <si>
-    <t>11.物资消费分配总值季汇总报表</t>
-  </si>
-  <si>
-    <t>12.周转材料入库台账</t>
-  </si>
-  <si>
-    <t>13.14.量差价差核算报表XX年X季度-模板</t>
-  </si>
-  <si>
-    <t>15.国家总项目部物资量差、价差节约超耗分析模板</t>
-  </si>
-  <si>
-    <t>16.ABC机械情况表</t>
-  </si>
-  <si>
-    <t>17.租用外部机械设备使用情况表</t>
-  </si>
-  <si>
-    <t>18.大型特种机械设备台账</t>
-  </si>
-  <si>
-    <t>20.设备投资季报</t>
-  </si>
-  <si>
-    <t>21.自有施工机械设备状况</t>
-  </si>
-  <si>
-    <t>22.各公司闲置设备统计表</t>
-  </si>
-  <si>
-    <t>8.运营管理业务采集季报（更新）</t>
-  </si>
-  <si>
-    <t>9.主要物资收、发、存统计季度报表</t>
-  </si>
-  <si>
-    <t>23.机械技术装备表</t>
-  </si>
-  <si>
-    <t>2.设备采购台账</t>
-  </si>
-  <si>
-    <t>3.主要物资收、发、存统计月度报表</t>
-  </si>
-  <si>
-    <t>4.物资购进、消费与库存总值月度汇总表</t>
-  </si>
-  <si>
-    <t>5.周转材料统计月度报表</t>
-  </si>
-  <si>
-    <t>6.材料运营管理月报</t>
-  </si>
-  <si>
-    <t>7.协作队伍机械设备使用情况表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -859,6 +859,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -885,7 +893,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -900,6 +908,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1175,22 +1186,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121:B129"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121:A129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.4140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.58203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.6640625" style="1"/>
+    <col min="1" max="1" width="28.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="58.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="97.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="92.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="102.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="64.19921875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1223,7 +1234,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1231,7 +1242,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1240,35 +1251,35 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="3"/>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1277,56 +1288,56 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="3"/>
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="3"/>
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1338,1017 +1349,1017 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+      <c r="A36" s="5"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+      <c r="A38" s="5"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+      <c r="A39" s="5"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
+      <c r="A45" s="5"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
+      <c r="A46" s="5"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
+      <c r="A47" s="5"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
+      <c r="A48" s="5"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
+      <c r="A49" s="5"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
+      <c r="A50" s="5"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
+      <c r="A51" s="5"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
+      <c r="A52" s="5"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
+      <c r="A53" s="5"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
+      <c r="A54" s="5"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
+      <c r="A56" s="5"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
+      <c r="A57" s="5"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
+      <c r="A58" s="5"/>
       <c r="B58" s="3"/>
       <c r="C58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
+      <c r="A59" s="5"/>
       <c r="B59" s="3"/>
       <c r="C59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
+      <c r="A60" s="5"/>
       <c r="B60" s="3"/>
       <c r="C60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
+      <c r="A61" s="5"/>
       <c r="B61" s="3"/>
       <c r="C61" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
+      <c r="A62" s="5"/>
       <c r="B62" s="3"/>
       <c r="C62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
+      <c r="A63" s="5"/>
       <c r="B63" s="3"/>
       <c r="C63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
+      <c r="A64" s="5"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="E64" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
+      <c r="A65" s="5"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
+      <c r="A66" s="5"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
+      <c r="A67" s="5"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="E67" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
+      <c r="A68" s="5"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
+      <c r="A69" s="5"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
+      <c r="A70" s="5"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
+      <c r="A71" s="5"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
+      <c r="A72" s="5"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
+      <c r="A73" s="5"/>
       <c r="B73" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="C78" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
+      <c r="B121" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="C121" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
+      <c r="A122" s="5"/>
       <c r="B122" s="3"/>
       <c r="C122" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
+      <c r="A123" s="5"/>
       <c r="B123" s="3"/>
       <c r="C123" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
+      <c r="A124" s="5"/>
       <c r="B124" s="3"/>
       <c r="C124" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
+      <c r="A125" s="5"/>
       <c r="B125" s="3"/>
       <c r="C125" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="5"/>
+      <c r="B126" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="2" t="s">
+      <c r="C126" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C126" s="1" t="s">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="5"/>
+      <c r="B127" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3" t="s">
+      <c r="C127" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
+      <c r="A128" s="5"/>
       <c r="B128" s="3"/>
       <c r="C128" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="5"/>
+      <c r="B129" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="2" t="s">
+      <c r="C129" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -2356,7 +2367,7 @@
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2364,7 +2375,7 @@
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2372,7 +2383,7 @@
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2380,7 +2391,7 @@
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2388,32 +2399,32 @@
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -2421,7 +2432,7 @@
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -2429,962 +2440,940 @@
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
+      <c r="B147" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B147" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C147" s="3" t="s">
+      <c r="D147" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="E147" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="F147" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F147" s="3" t="s">
+      <c r="G147" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="H147" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="H147" s="1" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
+      <c r="A148" s="5"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H148" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H148" s="1" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
+      <c r="A149" s="5"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G149" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H149" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="H149" s="1" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
+      <c r="A150" s="5"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="G150" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H150" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H150" s="1" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
+      <c r="A151" s="5"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
+      <c r="A152" s="5"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H152" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F152" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>185</v>
-      </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
+      <c r="A153" s="5"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="G153" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
+      <c r="A154" s="5"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
+      <c r="A155" s="5"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="G155" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
+      <c r="A156" s="5"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
+      <c r="A157" s="5"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
+      <c r="A158" s="5"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
+      <c r="A159" s="5"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
+      <c r="A160" s="5"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
+      <c r="A161" s="5"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
+      <c r="A162" s="5"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
+      <c r="A163" s="5"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
+      <c r="A164" s="5"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="3"/>
+      <c r="A165" s="5"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="3"/>
+      <c r="A166" s="5"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="3"/>
+      <c r="A167" s="5"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="3"/>
+      <c r="A168" s="5"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="3"/>
+      <c r="A169" s="5"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="3"/>
+      <c r="A170" s="5"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="3"/>
+      <c r="A171" s="5"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="3"/>
+      <c r="A172" s="5"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="3"/>
+      <c r="A173" s="5"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>205</v>
-      </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="3"/>
+      <c r="A174" s="5"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="3"/>
+      <c r="A175" s="5"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="3"/>
+      <c r="A176" s="5"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="3"/>
+      <c r="A177" s="5"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D177" s="1" t="s">
-        <v>210</v>
-      </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="3"/>
+      <c r="A178" s="5"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="3"/>
+      <c r="A179" s="5"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="3"/>
+      <c r="A180" s="5"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="3"/>
+      <c r="A181" s="5"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="3"/>
+      <c r="A182" s="5"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="3"/>
+      <c r="A183" s="5"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="3"/>
+      <c r="A184" s="5"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="3"/>
+      <c r="A185" s="5"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="3"/>
+      <c r="A186" s="5"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="3"/>
+      <c r="A187" s="5"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="3"/>
+      <c r="A188" s="5"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="3"/>
+      <c r="A189" s="5"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="3"/>
+      <c r="A190" s="5"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="3"/>
+      <c r="A191" s="5"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="3"/>
+      <c r="A192" s="5"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="3"/>
+      <c r="A193" s="5"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="3"/>
+      <c r="A194" s="5"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="3"/>
+      <c r="A195" s="5"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="5"/>
+      <c r="B196" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="3"/>
-      <c r="B196" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="C196" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="3"/>
+      <c r="A197" s="5"/>
       <c r="B197" s="3"/>
       <c r="C197" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="3"/>
+      <c r="A198" s="5"/>
       <c r="B198" s="3"/>
       <c r="C198" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="3"/>
+      <c r="A199" s="5"/>
       <c r="B199" s="3"/>
       <c r="C199" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="3"/>
+      <c r="A200" s="5"/>
       <c r="B200" s="3"/>
       <c r="C200" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="3"/>
+      <c r="A201" s="5"/>
       <c r="B201" s="3"/>
       <c r="C201" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="3"/>
+      <c r="A202" s="5"/>
       <c r="B202" s="3"/>
       <c r="C202" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="3"/>
+      <c r="A203" s="5"/>
       <c r="B203" s="3"/>
       <c r="C203" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="3"/>
+      <c r="A204" s="5"/>
       <c r="B204" s="3"/>
       <c r="C204" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="3"/>
+      <c r="A205" s="5"/>
       <c r="B205" s="3"/>
       <c r="C205" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="3"/>
+      <c r="A206" s="5"/>
       <c r="B206" s="3"/>
       <c r="C206" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="3"/>
+      <c r="A207" s="5"/>
       <c r="B207" s="3"/>
       <c r="C207" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="3"/>
+      <c r="A208" s="5"/>
       <c r="B208" s="3"/>
       <c r="C208" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="3"/>
+      <c r="A209" s="5"/>
       <c r="B209" s="3"/>
       <c r="C209" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="3"/>
+      <c r="A210" s="5"/>
       <c r="B210" s="3"/>
       <c r="C210" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="3"/>
+      <c r="A211" s="5"/>
       <c r="B211" s="3"/>
       <c r="C211" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="3"/>
+      <c r="A212" s="5"/>
       <c r="B212" s="3"/>
       <c r="C212" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="3"/>
+      <c r="A213" s="5"/>
       <c r="B213" s="3"/>
       <c r="C213" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="3"/>
+      <c r="A214" s="5"/>
       <c r="B214" s="3"/>
       <c r="C214" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="3"/>
+      <c r="A215" s="5"/>
       <c r="B215" s="3"/>
       <c r="C215" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="3"/>
+      <c r="A216" s="5"/>
       <c r="B216" s="3"/>
       <c r="C216" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="3"/>
+      <c r="A217" s="5"/>
       <c r="B217" s="3"/>
       <c r="C217" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="3"/>
+      <c r="A218" s="5"/>
       <c r="B218" s="3"/>
       <c r="C218" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="3"/>
+      <c r="A219" s="5"/>
       <c r="B219" s="3"/>
       <c r="C219" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="3"/>
+      <c r="A220" s="5"/>
       <c r="B220" s="3"/>
       <c r="C220" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="3"/>
+      <c r="A221" s="5"/>
       <c r="B221" s="3"/>
       <c r="C221" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="3"/>
+      <c r="A222" s="5"/>
       <c r="B222" s="3"/>
       <c r="C222" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="3"/>
+      <c r="A223" s="5"/>
       <c r="B223" s="3"/>
       <c r="C223" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="3"/>
+      <c r="A224" s="5"/>
       <c r="B224" s="3"/>
       <c r="C224" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="3"/>
+      <c r="A225" s="5"/>
       <c r="B225" s="3"/>
       <c r="C225" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="3"/>
+      <c r="A226" s="5"/>
       <c r="B226" s="3"/>
       <c r="C226" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="3"/>
+      <c r="A227" s="5"/>
       <c r="B227" s="3"/>
       <c r="C227" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="3"/>
+      <c r="A228" s="5"/>
       <c r="B228" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D228" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C228" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>251</v>
-      </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="3"/>
+      <c r="A229" s="5"/>
       <c r="B229" s="3"/>
       <c r="C229" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D229" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="5"/>
+      <c r="B230" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="3"/>
-      <c r="B230" s="3" t="s">
+      <c r="C230" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C230" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>254</v>
-      </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="3"/>
+      <c r="A231" s="5"/>
       <c r="B231" s="3"/>
       <c r="C231" s="4"/>
       <c r="D231" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="3"/>
+      <c r="A232" s="5"/>
       <c r="B232" s="3"/>
       <c r="C232" s="4"/>
       <c r="D232" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="3"/>
+      <c r="A233" s="5"/>
       <c r="B233" s="3"/>
       <c r="C233" s="4"/>
       <c r="D233" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="3"/>
+      <c r="A234" s="5"/>
       <c r="B234" s="3"/>
       <c r="C234" s="4"/>
       <c r="D234" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="3"/>
+      <c r="A235" s="5"/>
       <c r="B235" s="3"/>
       <c r="C235" s="4"/>
       <c r="D235" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="3"/>
+      <c r="A236" s="5"/>
       <c r="B236" s="3"/>
       <c r="C236" s="4"/>
       <c r="D236" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="3"/>
+      <c r="A237" s="5"/>
       <c r="B237" s="3"/>
       <c r="C237" s="4"/>
       <c r="D237" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="3"/>
+      <c r="A238" s="5"/>
       <c r="B238" s="3"/>
       <c r="C238" s="4"/>
       <c r="D238" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="3"/>
+      <c r="A239" s="5"/>
       <c r="B239" s="3"/>
       <c r="C239" s="4"/>
       <c r="D239" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="3"/>
+      <c r="A240" s="5"/>
       <c r="B240" s="3"/>
       <c r="C240" s="4"/>
       <c r="D240" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="3"/>
+      <c r="A241" s="5"/>
       <c r="B241" s="3"/>
       <c r="C241" s="4"/>
       <c r="D241" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="3"/>
+      <c r="A242" s="5"/>
       <c r="B242" s="3"/>
       <c r="C242" s="4"/>
       <c r="D242" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="3"/>
+      <c r="A243" s="5"/>
       <c r="B243" s="3"/>
       <c r="C243" s="4"/>
       <c r="D243" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="3"/>
+      <c r="A244" s="5"/>
       <c r="B244" s="3"/>
       <c r="C244" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="3"/>
+      <c r="A245" s="5"/>
       <c r="B245" s="3"/>
       <c r="C245" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D245" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D245" s="1" t="s">
-        <v>210</v>
-      </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" s="3"/>
+      <c r="A246" s="5"/>
       <c r="B246" s="3"/>
       <c r="C246" s="4"/>
       <c r="D246" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" s="3"/>
+      <c r="A247" s="5"/>
       <c r="B247" s="3"/>
       <c r="C247" s="4"/>
       <c r="D247" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="3"/>
+      <c r="A248" s="5"/>
       <c r="B248" s="3"/>
       <c r="C248" s="4"/>
       <c r="D248" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="3"/>
+      <c r="A249" s="5"/>
       <c r="B249" s="3"/>
       <c r="C249" s="4"/>
       <c r="D249" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="3"/>
+      <c r="A250" s="5"/>
       <c r="B250" s="3"/>
       <c r="C250" s="4"/>
       <c r="D250" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="3"/>
+      <c r="A251" s="5"/>
       <c r="B251" s="3"/>
       <c r="C251" s="4"/>
       <c r="D251" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="E18:E35"/>
-    <mergeCell ref="E36:E53"/>
-    <mergeCell ref="E147:E151"/>
-    <mergeCell ref="E152:E156"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="F154:F155"/>
-    <mergeCell ref="D18:D53"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="D147:D156"/>
-    <mergeCell ref="B196:B227"/>
-    <mergeCell ref="B228:B229"/>
-    <mergeCell ref="B230:B251"/>
-    <mergeCell ref="C18:C54"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="C67:C72"/>
-    <mergeCell ref="C133:C138"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="C147:C172"/>
-    <mergeCell ref="C173:C176"/>
-    <mergeCell ref="C177:C195"/>
-    <mergeCell ref="C230:C243"/>
-    <mergeCell ref="C245:C251"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A73"/>
+    <mergeCell ref="A78:A120"/>
+    <mergeCell ref="A121:A129"/>
+    <mergeCell ref="A130:A143"/>
     <mergeCell ref="A144:A146"/>
     <mergeCell ref="A147:A251"/>
     <mergeCell ref="B3:B7"/>
@@ -3401,11 +3390,33 @@
     <mergeCell ref="B140:B143"/>
     <mergeCell ref="B145:B146"/>
     <mergeCell ref="B147:B195"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A73"/>
-    <mergeCell ref="A78:A120"/>
-    <mergeCell ref="A121:A129"/>
-    <mergeCell ref="A130:A143"/>
+    <mergeCell ref="B196:B227"/>
+    <mergeCell ref="B228:B229"/>
+    <mergeCell ref="B230:B251"/>
+    <mergeCell ref="C18:C54"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="C133:C138"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="C147:C172"/>
+    <mergeCell ref="C173:C176"/>
+    <mergeCell ref="C177:C195"/>
+    <mergeCell ref="C230:C243"/>
+    <mergeCell ref="C245:C251"/>
+    <mergeCell ref="D18:D53"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="D147:D156"/>
+    <mergeCell ref="E18:E35"/>
+    <mergeCell ref="E36:E53"/>
+    <mergeCell ref="E147:E151"/>
+    <mergeCell ref="E152:E156"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="F154:F155"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
